--- a/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
@@ -540,88 +540,88 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s"/>
-      <x:c r="B1" s="1" t="s"/>
-      <x:c r="H1" s="2" t="s"/>
+      <x:c r="A1" s="1"/>
+      <x:c r="B1" s="1"/>
+      <x:c r="H1" s="2"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="1" t="s"/>
-      <x:c r="B2" s="3" t="s"/>
-      <x:c r="H2" s="2" t="s"/>
+      <x:c r="A2" s="1"/>
+      <x:c r="B2" s="3"/>
+      <x:c r="H2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="H3" s="2" t="s"/>
+      <x:c r="B3" s="3"/>
+      <x:c r="H3" s="2"/>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="B4" s="3" t="s"/>
-      <x:c r="C4" s="1" t="s"/>
-      <x:c r="D4" s="1" t="s"/>
-      <x:c r="F4" s="1" t="s"/>
-      <x:c r="G4" s="4" t="s"/>
-      <x:c r="H4" s="2" t="s"/>
+      <x:c r="B4" s="3"/>
+      <x:c r="C4" s="1"/>
+      <x:c r="D4" s="1"/>
+      <x:c r="F4" s="1"/>
+      <x:c r="G4" s="4"/>
+      <x:c r="H4" s="2"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="B5" s="3" t="s"/>
-      <x:c r="C5" s="1" t="s"/>
-      <x:c r="D5" s="5" t="s"/>
-      <x:c r="F5" s="1" t="s"/>
-      <x:c r="G5" s="4" t="s"/>
-      <x:c r="H5" s="2" t="s"/>
+      <x:c r="B5" s="3"/>
+      <x:c r="C5" s="1"/>
+      <x:c r="D5" s="5"/>
+      <x:c r="F5" s="1"/>
+      <x:c r="G5" s="4"/>
+      <x:c r="H5" s="2"/>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="B6" s="3" t="s"/>
-      <x:c r="C6" s="1" t="s"/>
-      <x:c r="D6" s="5" t="s"/>
-      <x:c r="H6" s="2" t="s"/>
+      <x:c r="B6" s="3"/>
+      <x:c r="C6" s="1"/>
+      <x:c r="D6" s="5"/>
+      <x:c r="H6" s="2"/>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="B7" s="3" t="s"/>
-      <x:c r="C7" s="1" t="s"/>
-      <x:c r="D7" s="1" t="s"/>
-      <x:c r="H7" s="2" t="s"/>
+      <x:c r="B7" s="3"/>
+      <x:c r="C7" s="1"/>
+      <x:c r="D7" s="1"/>
+      <x:c r="H7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="B8" s="3" t="s"/>
-      <x:c r="H8" s="2" t="s"/>
+      <x:c r="B8" s="3"/>
+      <x:c r="H8" s="2"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="B9" s="3" t="s"/>
-      <x:c r="H9" s="2" t="s"/>
+      <x:c r="B9" s="3"/>
+      <x:c r="H9" s="2"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="B10" s="3" t="s"/>
-      <x:c r="H10" s="2" t="s"/>
+      <x:c r="B10" s="3"/>
+      <x:c r="H10" s="2"/>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="6" t="s"/>
-      <x:c r="B11" s="3" t="s"/>
-      <x:c r="C11" s="6" t="s"/>
-      <x:c r="D11" s="7" t="s"/>
-      <x:c r="E11" s="6" t="s"/>
-      <x:c r="H11" s="2" t="s"/>
+      <x:c r="A11" s="6"/>
+      <x:c r="B11" s="3"/>
+      <x:c r="C11" s="6"/>
+      <x:c r="D11" s="7"/>
+      <x:c r="E11" s="6"/>
+      <x:c r="H11" s="2"/>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="6" t="s"/>
-      <x:c r="B12" s="3" t="s"/>
-      <x:c r="C12" s="6" t="s"/>
-      <x:c r="D12" s="7" t="s"/>
-      <x:c r="E12" s="6" t="s"/>
-      <x:c r="H12" s="2" t="s"/>
+      <x:c r="A12" s="6"/>
+      <x:c r="B12" s="3"/>
+      <x:c r="C12" s="6"/>
+      <x:c r="D12" s="7"/>
+      <x:c r="E12" s="6"/>
+      <x:c r="H12" s="2"/>
     </x:row>
     <x:row r="13" spans="1:8">
-      <x:c r="A13" s="6" t="s"/>
-      <x:c r="B13" s="6" t="s"/>
-      <x:c r="C13" s="8" t="s"/>
-      <x:c r="D13" s="6" t="s"/>
-      <x:c r="E13" s="6" t="s"/>
+      <x:c r="A13" s="6"/>
+      <x:c r="B13" s="6"/>
+      <x:c r="C13" s="8"/>
+      <x:c r="D13" s="6"/>
+      <x:c r="E13" s="6"/>
     </x:row>
     <x:row r="14" spans="1:8">
-      <x:c r="A14" s="6" t="s"/>
-      <x:c r="B14" s="6" t="s"/>
-      <x:c r="C14" s="8" t="s"/>
-      <x:c r="D14" s="6" t="s"/>
-      <x:c r="E14" s="6" t="s"/>
+      <x:c r="A14" s="6"/>
+      <x:c r="B14" s="6"/>
+      <x:c r="C14" s="8"/>
+      <x:c r="D14" s="6"/>
+      <x:c r="E14" s="6"/>
     </x:row>
   </x:sheetData>
   <x:dataValidations count="8">
@@ -745,88 +745,88 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s"/>
-      <x:c r="B1" s="1" t="s"/>
-      <x:c r="H1" s="2" t="s"/>
+      <x:c r="A1" s="1"/>
+      <x:c r="B1" s="1"/>
+      <x:c r="H1" s="2"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="1" t="s"/>
-      <x:c r="B2" s="3" t="s"/>
-      <x:c r="H2" s="2" t="s"/>
+      <x:c r="A2" s="1"/>
+      <x:c r="B2" s="3"/>
+      <x:c r="H2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="H3" s="2" t="s"/>
+      <x:c r="B3" s="3"/>
+      <x:c r="H3" s="2"/>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="B4" s="3" t="s"/>
-      <x:c r="C4" s="1" t="s"/>
-      <x:c r="D4" s="1" t="s"/>
-      <x:c r="F4" s="1" t="s"/>
-      <x:c r="G4" s="4" t="s"/>
-      <x:c r="H4" s="2" t="s"/>
+      <x:c r="B4" s="3"/>
+      <x:c r="C4" s="1"/>
+      <x:c r="D4" s="1"/>
+      <x:c r="F4" s="1"/>
+      <x:c r="G4" s="4"/>
+      <x:c r="H4" s="2"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="B5" s="3" t="s"/>
-      <x:c r="C5" s="1" t="s"/>
-      <x:c r="D5" s="5" t="s"/>
-      <x:c r="F5" s="1" t="s"/>
-      <x:c r="G5" s="4" t="s"/>
-      <x:c r="H5" s="2" t="s"/>
+      <x:c r="B5" s="3"/>
+      <x:c r="C5" s="1"/>
+      <x:c r="D5" s="5"/>
+      <x:c r="F5" s="1"/>
+      <x:c r="G5" s="4"/>
+      <x:c r="H5" s="2"/>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="B6" s="3" t="s"/>
-      <x:c r="C6" s="1" t="s"/>
-      <x:c r="D6" s="5" t="s"/>
-      <x:c r="H6" s="2" t="s"/>
+      <x:c r="B6" s="3"/>
+      <x:c r="C6" s="1"/>
+      <x:c r="D6" s="5"/>
+      <x:c r="H6" s="2"/>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="B7" s="3" t="s"/>
-      <x:c r="C7" s="1" t="s"/>
-      <x:c r="D7" s="1" t="s"/>
-      <x:c r="H7" s="2" t="s"/>
+      <x:c r="B7" s="3"/>
+      <x:c r="C7" s="1"/>
+      <x:c r="D7" s="1"/>
+      <x:c r="H7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="B8" s="3" t="s"/>
-      <x:c r="H8" s="2" t="s"/>
+      <x:c r="B8" s="3"/>
+      <x:c r="H8" s="2"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="B9" s="3" t="s"/>
-      <x:c r="H9" s="2" t="s"/>
+      <x:c r="B9" s="3"/>
+      <x:c r="H9" s="2"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="B10" s="3" t="s"/>
-      <x:c r="H10" s="2" t="s"/>
+      <x:c r="B10" s="3"/>
+      <x:c r="H10" s="2"/>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="6" t="s"/>
-      <x:c r="B11" s="3" t="s"/>
-      <x:c r="C11" s="6" t="s"/>
-      <x:c r="D11" s="7" t="s"/>
-      <x:c r="E11" s="6" t="s"/>
-      <x:c r="H11" s="2" t="s"/>
+      <x:c r="A11" s="6"/>
+      <x:c r="B11" s="3"/>
+      <x:c r="C11" s="6"/>
+      <x:c r="D11" s="7"/>
+      <x:c r="E11" s="6"/>
+      <x:c r="H11" s="2"/>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="6" t="s"/>
-      <x:c r="B12" s="3" t="s"/>
-      <x:c r="C12" s="6" t="s"/>
-      <x:c r="D12" s="7" t="s"/>
-      <x:c r="E12" s="6" t="s"/>
-      <x:c r="H12" s="2" t="s"/>
+      <x:c r="A12" s="6"/>
+      <x:c r="B12" s="3"/>
+      <x:c r="C12" s="6"/>
+      <x:c r="D12" s="7"/>
+      <x:c r="E12" s="6"/>
+      <x:c r="H12" s="2"/>
     </x:row>
     <x:row r="13" spans="1:8">
-      <x:c r="A13" s="6" t="s"/>
-      <x:c r="B13" s="6" t="s"/>
-      <x:c r="C13" s="8" t="s"/>
-      <x:c r="D13" s="6" t="s"/>
-      <x:c r="E13" s="6" t="s"/>
+      <x:c r="A13" s="6"/>
+      <x:c r="B13" s="6"/>
+      <x:c r="C13" s="8"/>
+      <x:c r="D13" s="6"/>
+      <x:c r="E13" s="6"/>
     </x:row>
     <x:row r="14" spans="1:8">
-      <x:c r="A14" s="6" t="s"/>
-      <x:c r="B14" s="6" t="s"/>
-      <x:c r="C14" s="8" t="s"/>
-      <x:c r="D14" s="6" t="s"/>
-      <x:c r="E14" s="6" t="s"/>
+      <x:c r="A14" s="6"/>
+      <x:c r="B14" s="6"/>
+      <x:c r="C14" s="8"/>
+      <x:c r="D14" s="6"/>
+      <x:c r="E14" s="6"/>
     </x:row>
   </x:sheetData>
   <x:dataValidations count="8">
@@ -950,88 +950,88 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s"/>
-      <x:c r="B1" s="1" t="s"/>
-      <x:c r="H1" s="2" t="s"/>
+      <x:c r="A1" s="1"/>
+      <x:c r="B1" s="1"/>
+      <x:c r="H1" s="2"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="1" t="s"/>
-      <x:c r="B2" s="3" t="s"/>
-      <x:c r="H2" s="2" t="s"/>
+      <x:c r="A2" s="1"/>
+      <x:c r="B2" s="3"/>
+      <x:c r="H2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="H3" s="2" t="s"/>
+      <x:c r="B3" s="3"/>
+      <x:c r="H3" s="2"/>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="B4" s="3" t="s"/>
-      <x:c r="C4" s="1" t="s"/>
-      <x:c r="D4" s="1" t="s"/>
-      <x:c r="F4" s="1" t="s"/>
-      <x:c r="G4" s="4" t="s"/>
-      <x:c r="H4" s="2" t="s"/>
+      <x:c r="B4" s="3"/>
+      <x:c r="C4" s="1"/>
+      <x:c r="D4" s="1"/>
+      <x:c r="F4" s="1"/>
+      <x:c r="G4" s="4"/>
+      <x:c r="H4" s="2"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="B5" s="3" t="s"/>
-      <x:c r="C5" s="1" t="s"/>
-      <x:c r="D5" s="5" t="s"/>
-      <x:c r="F5" s="1" t="s"/>
-      <x:c r="G5" s="4" t="s"/>
-      <x:c r="H5" s="2" t="s"/>
+      <x:c r="B5" s="3"/>
+      <x:c r="C5" s="1"/>
+      <x:c r="D5" s="5"/>
+      <x:c r="F5" s="1"/>
+      <x:c r="G5" s="4"/>
+      <x:c r="H5" s="2"/>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="B6" s="3" t="s"/>
-      <x:c r="C6" s="1" t="s"/>
-      <x:c r="D6" s="5" t="s"/>
-      <x:c r="H6" s="2" t="s"/>
+      <x:c r="B6" s="3"/>
+      <x:c r="C6" s="1"/>
+      <x:c r="D6" s="5"/>
+      <x:c r="H6" s="2"/>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="B7" s="3" t="s"/>
-      <x:c r="C7" s="1" t="s"/>
-      <x:c r="D7" s="1" t="s"/>
-      <x:c r="H7" s="2" t="s"/>
+      <x:c r="B7" s="3"/>
+      <x:c r="C7" s="1"/>
+      <x:c r="D7" s="1"/>
+      <x:c r="H7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="B8" s="3" t="s"/>
-      <x:c r="H8" s="2" t="s"/>
+      <x:c r="B8" s="3"/>
+      <x:c r="H8" s="2"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="B9" s="3" t="s"/>
-      <x:c r="H9" s="2" t="s"/>
+      <x:c r="B9" s="3"/>
+      <x:c r="H9" s="2"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="B10" s="3" t="s"/>
-      <x:c r="H10" s="2" t="s"/>
+      <x:c r="B10" s="3"/>
+      <x:c r="H10" s="2"/>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="6" t="s"/>
-      <x:c r="B11" s="3" t="s"/>
-      <x:c r="C11" s="6" t="s"/>
-      <x:c r="D11" s="7" t="s"/>
-      <x:c r="E11" s="6" t="s"/>
-      <x:c r="H11" s="2" t="s"/>
+      <x:c r="A11" s="6"/>
+      <x:c r="B11" s="3"/>
+      <x:c r="C11" s="6"/>
+      <x:c r="D11" s="7"/>
+      <x:c r="E11" s="6"/>
+      <x:c r="H11" s="2"/>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="6" t="s"/>
-      <x:c r="B12" s="3" t="s"/>
-      <x:c r="C12" s="6" t="s"/>
-      <x:c r="D12" s="7" t="s"/>
-      <x:c r="E12" s="6" t="s"/>
-      <x:c r="H12" s="2" t="s"/>
+      <x:c r="A12" s="6"/>
+      <x:c r="B12" s="3"/>
+      <x:c r="C12" s="6"/>
+      <x:c r="D12" s="7"/>
+      <x:c r="E12" s="6"/>
+      <x:c r="H12" s="2"/>
     </x:row>
     <x:row r="13" spans="1:8">
-      <x:c r="A13" s="6" t="s"/>
-      <x:c r="B13" s="6" t="s"/>
-      <x:c r="C13" s="8" t="s"/>
-      <x:c r="D13" s="6" t="s"/>
-      <x:c r="E13" s="6" t="s"/>
+      <x:c r="A13" s="6"/>
+      <x:c r="B13" s="6"/>
+      <x:c r="C13" s="8"/>
+      <x:c r="D13" s="6"/>
+      <x:c r="E13" s="6"/>
     </x:row>
     <x:row r="14" spans="1:8">
-      <x:c r="A14" s="6" t="s"/>
-      <x:c r="B14" s="6" t="s"/>
-      <x:c r="C14" s="8" t="s"/>
-      <x:c r="D14" s="6" t="s"/>
-      <x:c r="E14" s="6" t="s"/>
+      <x:c r="A14" s="6"/>
+      <x:c r="B14" s="6"/>
+      <x:c r="C14" s="8"/>
+      <x:c r="D14" s="6"/>
+      <x:c r="E14" s="6"/>
     </x:row>
   </x:sheetData>
   <x:dataValidations count="8">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
@@ -473,7 +473,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C6"/>
+  <x:dimension ref="A1:C2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -671,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C6"/>
+  <x:dimension ref="A1:C2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Yes</x:t>
   </x:si>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -667,7 +667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -734,7 +734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -879,7 +879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -939,7 +939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
@@ -6,12 +6,12 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Data Validation" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Validate Ranges" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Data Validation - Copy" sheetId="4" r:id="rId4"/>
-    <x:sheet name="Validate Ranges - Copy" sheetId="5" r:id="rId5"/>
-    <x:sheet name="Copy From Range 1" sheetId="6" r:id="rId6"/>
-    <x:sheet name="Copy From Range 2" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Data Validation" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Validate Ranges" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Data Validation - Copy" sheetId="3" r:id="rId4"/>
+    <x:sheet name="Validate Ranges - Copy" sheetId="4" r:id="rId5"/>
+    <x:sheet name="Copy From Range 1" sheetId="5" r:id="rId6"/>
+    <x:sheet name="Copy From Range 2" sheetId="6" r:id="rId7"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="YesNo">'Data Validation'!$C$1:$C$2</x:definedName>

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
@@ -504,7 +504,7 @@
       <x:formula2/>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A5:A5">
-      <x:formula1>'Data Validation'!$C$1:$C$2</x:formula1>
+      <x:formula1>$C$1:$C$2</x:formula1>
       <x:formula2/>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A6:A6">
@@ -688,7 +688,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:dataValidations count="7">
+  <x:dataValidations count="6">
     <x:dataValidation type="decimal" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A1:A1">
       <x:formula1>1</x:formula1>
       <x:formula2>5</x:formula2>
@@ -699,10 +699,6 @@
     </x:dataValidation>
     <x:dataValidation type="date" errorStyle="stop" operator="greaterThanOrEqual" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="Can't party like it's 1999." prompt="Please enter a date in this century." sqref="A4:A4">
       <x:formula1>36526</x:formula1>
-      <x:formula2/>
-    </x:dataValidation>
-    <x:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A5:A5">
-      <x:formula1>'Data Validation'!$C$1:$C$2</x:formula1>
       <x:formula2/>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A6:A6">
@@ -730,6 +726,18 @@
     <x:firstFooter/>
   </x:headerFooter>
   <x:tableParts count="0"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="">
+          <x14:formula1>
+            <xm:f>'Data Validation'!$C$1:$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>A5:A5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </x:ext>
+  </x:extLst>
 </x:worksheet>
 </file>
 
@@ -900,7 +908,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:dataValidations count="7">
+  <x:dataValidations count="6">
     <x:dataValidation type="decimal" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A1:A1">
       <x:formula1>1</x:formula1>
       <x:formula2>5</x:formula2>
@@ -911,10 +919,6 @@
     </x:dataValidation>
     <x:dataValidation type="date" errorStyle="stop" operator="greaterThanOrEqual" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="Can't party like it's 1999." prompt="Please enter a date in this century." sqref="A4:A4">
       <x:formula1>36526</x:formula1>
-      <x:formula2/>
-    </x:dataValidation>
-    <x:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A5:A5">
-      <x:formula1>'Data Validation'!$C$1:$C$2</x:formula1>
       <x:formula2/>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A6:A6">
@@ -935,6 +939,18 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="">
+          <x14:formula1>
+            <xm:f>'Data Validation'!$C$1:$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>A5:A5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </x:ext>
+  </x:extLst>
 </x:worksheet>
 </file>
 

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
@@ -6,12 +6,12 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Data Validation" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Validate Ranges" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Data Validation - Copy" sheetId="4" r:id="rId4"/>
-    <x:sheet name="Validate Ranges - Copy" sheetId="5" r:id="rId5"/>
-    <x:sheet name="Copy From Range 1" sheetId="6" r:id="rId6"/>
-    <x:sheet name="Copy From Range 2" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Data Validation" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Validate Ranges" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Data Validation - Copy" sheetId="3" r:id="rId4"/>
+    <x:sheet name="Validate Ranges - Copy" sheetId="4" r:id="rId5"/>
+    <x:sheet name="Copy From Range 1" sheetId="5" r:id="rId6"/>
+    <x:sheet name="Copy From Range 2" sheetId="6" r:id="rId7"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="YesNo">'Data Validation'!$C$1:$C$2</x:definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Yes</x:t>
   </x:si>
@@ -469,11 +469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C6"/>
+  <x:dimension ref="A1:C2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -504,7 +504,7 @@
       <x:formula2/>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A5:A5">
-      <x:formula1>'Data Validation'!$C$1:$C$2</x:formula1>
+      <x:formula1>$C$1:$C$2</x:formula1>
       <x:formula2/>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A6:A6">
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -667,11 +667,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C6"/>
+  <x:dimension ref="A1:C2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -688,7 +688,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:dataValidations count="7">
+  <x:dataValidations count="6">
     <x:dataValidation type="decimal" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A1:A1">
       <x:formula1>1</x:formula1>
       <x:formula2>5</x:formula2>
@@ -699,10 +699,6 @@
     </x:dataValidation>
     <x:dataValidation type="date" errorStyle="stop" operator="greaterThanOrEqual" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="Can't party like it's 1999." prompt="Please enter a date in this century." sqref="A4:A4">
       <x:formula1>36526</x:formula1>
-      <x:formula2/>
-    </x:dataValidation>
-    <x:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A5:A5">
-      <x:formula1>'Data Validation'!$C$1:$C$2</x:formula1>
       <x:formula2/>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A6:A6">
@@ -730,11 +726,23 @@
     <x:firstFooter/>
   </x:headerFooter>
   <x:tableParts count="0"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="">
+          <x14:formula1>
+            <xm:f>'Data Validation'!$C$1:$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>A5:A5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </x:ext>
+  </x:extLst>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -879,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -900,7 +908,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:dataValidations count="7">
+  <x:dataValidations count="6">
     <x:dataValidation type="decimal" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A1:A1">
       <x:formula1>1</x:formula1>
       <x:formula2>5</x:formula2>
@@ -911,10 +919,6 @@
     </x:dataValidation>
     <x:dataValidation type="date" errorStyle="stop" operator="greaterThanOrEqual" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="Can't party like it's 1999." prompt="Please enter a date in this century." sqref="A4:A4">
       <x:formula1>36526</x:formula1>
-      <x:formula2/>
-    </x:dataValidation>
-    <x:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A5:A5">
-      <x:formula1>'Data Validation'!$C$1:$C$2</x:formula1>
       <x:formula2/>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A6:A6">
@@ -935,11 +939,23 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="">
+          <x14:formula1>
+            <xm:f>'Data Validation'!$C$1:$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>A5:A5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </x:ext>
+  </x:extLst>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
@@ -728,7 +728,7 @@
   <x:tableParts count="0"/>
   <x:extLst>
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="">
           <x14:formula1>
             <xm:f>'Data Validation'!$C$1:$C$2</xm:f>
@@ -941,7 +941,7 @@
   <x:tableParts count="0"/>
   <x:extLst>
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="">
           <x14:formula1>
             <xm:f>'Data Validation'!$C$1:$C$2</xm:f>

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Yes</x:t>
   </x:si>
@@ -1039,33 +1039,33 @@
       <x:formula1>1.1</x:formula1>
       <x:formula2/>
     </x:dataValidation>
+    <x:dataValidation type="decimal" errorStyle="stop" operator="notEqual" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A11:A14 C11:C12 E11:E14 B13:B14 D13:D14">
+      <x:formula1>2.2</x:formula1>
+      <x:formula2/>
+    </x:dataValidation>
+    <x:dataValidation type="decimal" errorStyle="stop" operator="greaterThan" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="B2:B12">
+      <x:formula1>3.3</x:formula1>
+      <x:formula2/>
+    </x:dataValidation>
+    <x:dataValidation type="decimal" errorStyle="stop" operator="lessThan" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="D5:D6">
+      <x:formula1>4.4</x:formula1>
+      <x:formula2/>
+    </x:dataValidation>
+    <x:dataValidation type="decimal" errorStyle="stop" operator="greaterThanOrEqual" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="C13:C14">
+      <x:formula1>5.5</x:formula1>
+      <x:formula2/>
+    </x:dataValidation>
+    <x:dataValidation type="decimal" errorStyle="stop" operator="lessThanOrEqual" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="D11:D12">
+      <x:formula1>6.6</x:formula1>
+      <x:formula2/>
+    </x:dataValidation>
+    <x:dataValidation type="decimal" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="G4:G5">
+      <x:formula1>7.7</x:formula1>
+      <x:formula2>8.8</x:formula2>
+    </x:dataValidation>
     <x:dataValidation type="decimal" errorStyle="stop" operator="notBetween" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="H1:H12">
       <x:formula1>9.9</x:formula1>
       <x:formula2>10.1</x:formula2>
-    </x:dataValidation>
-    <x:dataValidation type="decimal" errorStyle="stop" operator="greaterThan" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="B2:B12">
-      <x:formula1>3.3</x:formula1>
-      <x:formula2/>
-    </x:dataValidation>
-    <x:dataValidation type="decimal" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="G4:G5">
-      <x:formula1>7.7</x:formula1>
-      <x:formula2>8.8</x:formula2>
-    </x:dataValidation>
-    <x:dataValidation type="decimal" errorStyle="stop" operator="lessThan" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="D5:D6">
-      <x:formula1>4.4</x:formula1>
-      <x:formula2/>
-    </x:dataValidation>
-    <x:dataValidation type="decimal" errorStyle="stop" operator="notEqual" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A11:A14 C11:C12 E11:E14 B13:B14 D13:D14">
-      <x:formula1>2.2</x:formula1>
-      <x:formula2/>
-    </x:dataValidation>
-    <x:dataValidation type="decimal" errorStyle="stop" operator="lessThanOrEqual" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="D11:D12">
-      <x:formula1>6.6</x:formula1>
-      <x:formula2/>
-    </x:dataValidation>
-    <x:dataValidation type="decimal" errorStyle="stop" operator="greaterThanOrEqual" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="C13:C14">
-      <x:formula1>5.5</x:formula1>
-      <x:formula2/>
     </x:dataValidation>
   </x:dataValidations>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataValidation.xlsx
@@ -1055,33 +1055,33 @@
       <x:formula1>1.1</x:formula1>
       <x:formula2/>
     </x:dataValidation>
+    <x:dataValidation type="decimal" errorStyle="stop" operator="notEqual" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A11:A14 C11:C12 E11:E14 B13:B14 D13:D14">
+      <x:formula1>2.2</x:formula1>
+      <x:formula2/>
+    </x:dataValidation>
+    <x:dataValidation type="decimal" errorStyle="stop" operator="greaterThan" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="B2:B12">
+      <x:formula1>3.3</x:formula1>
+      <x:formula2/>
+    </x:dataValidation>
+    <x:dataValidation type="decimal" errorStyle="stop" operator="lessThan" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="D5:D6">
+      <x:formula1>4.4</x:formula1>
+      <x:formula2/>
+    </x:dataValidation>
+    <x:dataValidation type="decimal" errorStyle="stop" operator="greaterThanOrEqual" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="C13:C14">
+      <x:formula1>5.5</x:formula1>
+      <x:formula2/>
+    </x:dataValidation>
+    <x:dataValidation type="decimal" errorStyle="stop" operator="lessThanOrEqual" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="D11:D12">
+      <x:formula1>6.6</x:formula1>
+      <x:formula2/>
+    </x:dataValidation>
+    <x:dataValidation type="decimal" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="G4:G5">
+      <x:formula1>7.7</x:formula1>
+      <x:formula2>8.8</x:formula2>
+    </x:dataValidation>
     <x:dataValidation type="decimal" errorStyle="stop" operator="notBetween" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="H1:H12">
       <x:formula1>9.9</x:formula1>
       <x:formula2>10.1</x:formula2>
-    </x:dataValidation>
-    <x:dataValidation type="decimal" errorStyle="stop" operator="greaterThan" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="B2:B12">
-      <x:formula1>3.3</x:formula1>
-      <x:formula2/>
-    </x:dataValidation>
-    <x:dataValidation type="decimal" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="G4:G5">
-      <x:formula1>7.7</x:formula1>
-      <x:formula2>8.8</x:formula2>
-    </x:dataValidation>
-    <x:dataValidation type="decimal" errorStyle="stop" operator="lessThan" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="D5:D6">
-      <x:formula1>4.4</x:formula1>
-      <x:formula2/>
-    </x:dataValidation>
-    <x:dataValidation type="decimal" errorStyle="stop" operator="notEqual" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="A11:A14 C11:C12 E11:E14 B13:B14 D13:D14">
-      <x:formula1>2.2</x:formula1>
-      <x:formula2/>
-    </x:dataValidation>
-    <x:dataValidation type="decimal" errorStyle="stop" operator="lessThanOrEqual" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="D11:D12">
-      <x:formula1>6.6</x:formula1>
-      <x:formula2/>
-    </x:dataValidation>
-    <x:dataValidation type="decimal" errorStyle="stop" operator="greaterThanOrEqual" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="C13:C14">
-      <x:formula1>5.5</x:formula1>
-      <x:formula2/>
     </x:dataValidation>
   </x:dataValidations>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
